--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220329.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225629.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 29/11/2022 - 09:03:36</t>
+    <t>Informação extraída do SIGBM: 29/11/2022 - 10:56:01</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225629.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224729.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 29/11/2022 - 10:56:01</t>
+    <t>Informação extraída do SIGBM: 29/11/2022 - 11:47:46</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224729.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221730.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 29/11/2022 - 11:47:46</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 12:17:10</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221730.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224030.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 12:17:10</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 12:40:11</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224030.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225130.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 12:40:11</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 12:51:51</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225130.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220030.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 12:51:51</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 01:00:42</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220030.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222430.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 01:00:42</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 01:24:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222430.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224330.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 01:24:58</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 01:43:35</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224330.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225430.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 01:43:35</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 01:54:44</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225430.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220330.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 01:54:44</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 02:03:40</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220330.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222430.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 02:03:40</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 02:24:04</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222430.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223430.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 02:24:04</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 02:34:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223430.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224330.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 02:34:30</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 02:43:51</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224330.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225230.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 02:43:51</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 02:52:33</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225230.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220130.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 02:52:33</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 03:01:35</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220130.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222630.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 03:01:35</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 03:26:34</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222630.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224430.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 03:26:34</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 03:44:47</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224430.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225430.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 03:44:47</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 03:54:36</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225430.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220330.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 03:54:36</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 04:03:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220330.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222230.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 04:03:24</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 04:22:43</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222230.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223330.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 04:22:43</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 04:33:44</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223330.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224130.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 04:33:44</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 04:41:35</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224130.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225030.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 04:41:35</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 04:50:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225030.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225930.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 04:50:58</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 04:59:43</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225930.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222330.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 04:59:43</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 05:23:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222330.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224230.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 05:23:00</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 05:42:06</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224230.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225230.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 05:42:06</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 05:52:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225230.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220130.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 05:52:30</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 06:01:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220130.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222230.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 06:01:49</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 06:22:28</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222230.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223430.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 06:22:28</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 06:34:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223430.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224530.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 06:34:52</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 06:45:38</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224530.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225430.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 06:45:38</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 06:54:19</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225430.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220330.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 06:54:19</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 07:03:29</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220330.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222730.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 07:03:29</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 07:27:54</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222730.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224230.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 07:27:54</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 07:42:12</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224230.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225130.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 07:42:12</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 07:51:11</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225130.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225930.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 07:51:11</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 07:59:54</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225930.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221630.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 07:59:54</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 08:16:45</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221630.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222930.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 08:16:45</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 08:29:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222930.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223830.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 08:29:26</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 08:38:40</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223830.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224830.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 08:38:40</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 08:48:01</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224830.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225730.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 08:48:01</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 08:57:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225730.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222130.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 08:57:30</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 09:21:07</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222130.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220130.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 09:21:07</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 10:01:06</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -41043,7 +41043,7 @@
         <v>58</v>
       </c>
       <c r="K460" s="0">
-        <v>50.7</v>
+        <v>50.56</v>
       </c>
       <c r="L460" s="0" t="s">
         <v>2282</v>
@@ -55257,7 +55257,7 @@
         <v>58</v>
       </c>
       <c r="K691" s="0">
-        <v>16.37</v>
+        <v>16.13</v>
       </c>
       <c r="L691" s="0" t="s">
         <v>3254</v>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220130.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223430.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 10:01:06</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 10:34:20</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -1088,6 +1088,9 @@
     <t>173.849,00</t>
   </si>
   <si>
+    <t>1º Campanha 2022 - Não Enviado</t>
+  </si>
+  <si>
     <t>B7</t>
   </si>
   <si>
@@ -1464,9 +1467,6 @@
   </si>
   <si>
     <t>80.000,00</t>
-  </si>
-  <si>
-    <t>1º Campanha 2022 - Não Enviado</t>
   </si>
   <si>
     <t>PARA PIGMENTOS S A</t>
@@ -16649,10 +16649,10 @@
         <v>107</v>
       </c>
       <c r="O65" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P65" s="0" t="s">
-        <v>192</v>
+        <v>47</v>
       </c>
       <c r="Q65" s="0" t="s">
         <v>48</v>
@@ -16664,7 +16664,7 @@
         <v>148</v>
       </c>
       <c r="T65" s="0" t="s">
-        <v>34</v>
+        <v>358</v>
       </c>
     </row>
     <row r="66">
@@ -16672,7 +16672,7 @@
         <v>8217</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C66" s="0" t="s">
         <v>52</v>
@@ -16681,10 +16681,10 @@
         <v>53</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G66" s="0" t="s">
         <v>26</v>
@@ -16702,19 +16702,19 @@
         <v>24</v>
       </c>
       <c r="L66" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M66" s="0" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="N66" s="0" t="s">
         <v>107</v>
       </c>
       <c r="O66" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P66" s="0" t="s">
-        <v>192</v>
+        <v>47</v>
       </c>
       <c r="Q66" s="0" t="s">
         <v>48</v>
@@ -16726,7 +16726,7 @@
         <v>148</v>
       </c>
       <c r="T66" s="0" t="s">
-        <v>34</v>
+        <v>358</v>
       </c>
     </row>
     <row r="67">
@@ -16734,28 +16734,28 @@
         <v>9182</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G67" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="J67" s="0" t="s">
         <v>58</v>
@@ -16764,7 +16764,7 @@
         <v>4</v>
       </c>
       <c r="L67" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M67" s="0" t="s">
         <v>44</v>
@@ -16796,25 +16796,25 @@
         <v>9091</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G68" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I68" s="0" t="s">
         <v>120</v>
@@ -16826,7 +16826,7 @@
         <v>9</v>
       </c>
       <c r="L68" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M68" s="0" t="s">
         <v>147</v>
@@ -16858,28 +16858,28 @@
         <v>9160</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G69" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="J69" s="0" t="s">
         <v>58</v>
@@ -16888,7 +16888,7 @@
         <v>4.25</v>
       </c>
       <c r="L69" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M69" s="0" t="s">
         <v>44</v>
@@ -16920,28 +16920,28 @@
         <v>9272</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G70" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I70" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="J70" s="0" t="s">
         <v>274</v>
@@ -16950,7 +16950,7 @@
         <v>10.08</v>
       </c>
       <c r="L70" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M70" s="0" t="s">
         <v>44</v>
@@ -16982,28 +16982,28 @@
         <v>9163</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G71" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I71" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="J71" s="0" t="s">
         <v>274</v>
@@ -17012,7 +17012,7 @@
         <v>4.2</v>
       </c>
       <c r="L71" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M71" s="0" t="s">
         <v>44</v>
@@ -17044,28 +17044,28 @@
         <v>9164</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G72" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="J72" s="0" t="s">
         <v>274</v>
@@ -17074,7 +17074,7 @@
         <v>11.69</v>
       </c>
       <c r="L72" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M72" s="0" t="s">
         <v>44</v>
@@ -17106,25 +17106,25 @@
         <v>9092</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G73" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I73" s="0" t="s">
         <v>120</v>
@@ -17168,28 +17168,28 @@
         <v>9166</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G74" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I74" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="J74" s="0" t="s">
         <v>274</v>
@@ -17198,7 +17198,7 @@
         <v>13.05</v>
       </c>
       <c r="L74" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M74" s="0" t="s">
         <v>44</v>
@@ -17230,25 +17230,25 @@
         <v>9093</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G75" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I75" s="0" t="s">
         <v>120</v>
@@ -17260,7 +17260,7 @@
         <v>7</v>
       </c>
       <c r="L75" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M75" s="0" t="s">
         <v>44</v>
@@ -17292,25 +17292,25 @@
         <v>9094</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G76" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I76" s="0" t="s">
         <v>120</v>
@@ -17322,7 +17322,7 @@
         <v>7</v>
       </c>
       <c r="L76" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M76" s="0" t="s">
         <v>44</v>
@@ -17354,37 +17354,37 @@
         <v>9062</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G77" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H77" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="I77" s="0" t="s">
         <v>57</v>
       </c>
       <c r="J77" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K77" s="0">
         <v>9</v>
       </c>
       <c r="L77" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M77" s="0" t="s">
         <v>44</v>
@@ -17416,37 +17416,37 @@
         <v>9063</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G78" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="I78" s="0" t="s">
         <v>57</v>
       </c>
       <c r="J78" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K78" s="0">
         <v>9</v>
       </c>
       <c r="L78" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M78" s="0" t="s">
         <v>44</v>
@@ -17478,25 +17478,25 @@
         <v>9095</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G79" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I79" s="0" t="s">
         <v>120</v>
@@ -17508,7 +17508,7 @@
         <v>5</v>
       </c>
       <c r="L79" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M79" s="0" t="s">
         <v>44</v>
@@ -17540,25 +17540,25 @@
         <v>9096</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G80" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I80" s="0" t="s">
         <v>120</v>
@@ -17570,7 +17570,7 @@
         <v>12</v>
       </c>
       <c r="L80" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M80" s="0" t="s">
         <v>44</v>
@@ -17602,25 +17602,25 @@
         <v>9287</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G81" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H81" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="I81" s="0" t="s">
         <v>57</v>
@@ -17632,7 +17632,7 @@
         <v>26</v>
       </c>
       <c r="L81" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M81" s="0" t="s">
         <v>44</v>
@@ -17664,25 +17664,25 @@
         <v>9097</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G82" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H82" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I82" s="0" t="s">
         <v>120</v>
@@ -17694,7 +17694,7 @@
         <v>8</v>
       </c>
       <c r="L82" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M82" s="0" t="s">
         <v>44</v>
@@ -17726,37 +17726,37 @@
         <v>9064</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G83" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="I83" s="0" t="s">
         <v>57</v>
       </c>
       <c r="J83" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K83" s="0">
         <v>9</v>
       </c>
       <c r="L83" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M83" s="0" t="s">
         <v>44</v>
@@ -17788,37 +17788,37 @@
         <v>9065</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G84" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H84" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="I84" s="0" t="s">
         <v>57</v>
       </c>
       <c r="J84" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K84" s="0">
         <v>9</v>
       </c>
       <c r="L84" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M84" s="0" t="s">
         <v>44</v>
@@ -17850,37 +17850,37 @@
         <v>9067</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G85" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H85" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="I85" s="0" t="s">
         <v>57</v>
       </c>
       <c r="J85" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K85" s="0">
         <v>13.5</v>
       </c>
       <c r="L85" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M85" s="0" t="s">
         <v>44</v>
@@ -17912,37 +17912,37 @@
         <v>9068</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G86" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H86" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="I86" s="0" t="s">
         <v>57</v>
       </c>
       <c r="J86" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K86" s="0">
         <v>13.5</v>
       </c>
       <c r="L86" s="0" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M86" s="0" t="s">
         <v>44</v>
@@ -17974,37 +17974,37 @@
         <v>9069</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G87" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H87" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="I87" s="0" t="s">
         <v>57</v>
       </c>
       <c r="J87" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K87" s="0">
         <v>13.5</v>
       </c>
       <c r="L87" s="0" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M87" s="0" t="s">
         <v>44</v>
@@ -18036,37 +18036,37 @@
         <v>9070</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="G88" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H88" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="I88" s="0" t="s">
         <v>57</v>
       </c>
       <c r="J88" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K88" s="0">
         <v>11</v>
       </c>
       <c r="L88" s="0" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M88" s="0" t="s">
         <v>44</v>
@@ -18098,37 +18098,37 @@
         <v>9741</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="G89" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H89" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="I89" s="0" t="s">
         <v>57</v>
       </c>
       <c r="J89" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K89" s="0">
         <v>15.88</v>
       </c>
       <c r="L89" s="0" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M89" s="0" t="s">
         <v>44</v>
@@ -18160,37 +18160,37 @@
         <v>8267</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="G90" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H90" s="0" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="I90" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="J90" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="K90" s="0">
         <v>5.3</v>
       </c>
       <c r="L90" s="0" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M90" s="0" t="s">
         <v>44</v>
@@ -18222,37 +18222,37 @@
         <v>8268</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="G91" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H91" s="0" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="I91" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="J91" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="K91" s="0">
         <v>6.5</v>
       </c>
       <c r="L91" s="0" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M91" s="0" t="s">
         <v>44</v>
@@ -18284,37 +18284,37 @@
         <v>9071</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="G92" s="0" t="s">
         <v>26</v>
       </c>
       <c r="H92" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="I92" s="0" t="s">
         <v>57</v>
       </c>
       <c r="J92" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K92" s="0">
         <v>3</v>
       </c>
       <c r="L92" s="0" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M92" s="0" t="s">
         <v>44</v>
@@ -18338,7 +18338,7 @@
         <v>148</v>
       </c>
       <c r="T92" s="0" t="s">
-        <v>484</v>
+        <v>358</v>
       </c>
     </row>
     <row r="93">
@@ -18346,7 +18346,7 @@
         <v>9074</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C93" s="0" t="s">
         <v>485</v>
@@ -18370,13 +18370,13 @@
         <v>57</v>
       </c>
       <c r="J93" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K93" s="0">
         <v>13</v>
       </c>
       <c r="L93" s="0" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M93" s="0" t="s">
         <v>85</v>
@@ -18411,10 +18411,10 @@
         <v>490</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E94" s="0" t="s">
         <v>491</v>
@@ -18426,13 +18426,13 @@
         <v>26</v>
       </c>
       <c r="H94" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="I94" s="0" t="s">
         <v>57</v>
       </c>
       <c r="J94" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K94" s="0">
         <v>4.5</v>
@@ -18462,7 +18462,7 @@
         <v>148</v>
       </c>
       <c r="T94" s="0" t="s">
-        <v>484</v>
+        <v>358</v>
       </c>
     </row>
     <row r="95">
@@ -18473,10 +18473,10 @@
         <v>494</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E95" s="0" t="s">
         <v>495</v>
@@ -18488,10 +18488,10 @@
         <v>26</v>
       </c>
       <c r="H95" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I95" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="J95" s="0" t="s">
         <v>58</v>
@@ -18535,10 +18535,10 @@
         <v>498</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E96" s="0" t="s">
         <v>495</v>
@@ -18550,10 +18550,10 @@
         <v>26</v>
       </c>
       <c r="H96" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I96" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="J96" s="0" t="s">
         <v>58</v>
@@ -18597,10 +18597,10 @@
         <v>500</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E97" s="0" t="s">
         <v>501</v>
@@ -18612,10 +18612,10 @@
         <v>26</v>
       </c>
       <c r="H97" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I97" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="J97" s="0" t="s">
         <v>58</v>
@@ -18659,10 +18659,10 @@
         <v>504</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E98" s="0" t="s">
         <v>505</v>
@@ -18674,10 +18674,10 @@
         <v>26</v>
       </c>
       <c r="H98" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I98" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="J98" s="0" t="s">
         <v>58</v>
@@ -18721,10 +18721,10 @@
         <v>508</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E99" s="0" t="s">
         <v>509</v>
@@ -18736,10 +18736,10 @@
         <v>26</v>
       </c>
       <c r="H99" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I99" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="J99" s="0" t="s">
         <v>58</v>
@@ -18783,10 +18783,10 @@
         <v>512</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E100" s="0" t="s">
         <v>513</v>
@@ -18798,10 +18798,10 @@
         <v>26</v>
       </c>
       <c r="H100" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I100" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="J100" s="0" t="s">
         <v>58</v>
@@ -18845,10 +18845,10 @@
         <v>516</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E101" s="0" t="s">
         <v>517</v>
@@ -18860,10 +18860,10 @@
         <v>26</v>
       </c>
       <c r="H101" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I101" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="J101" s="0" t="s">
         <v>58</v>
@@ -18907,10 +18907,10 @@
         <v>520</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E102" s="0" t="s">
         <v>521</v>
@@ -18922,10 +18922,10 @@
         <v>26</v>
       </c>
       <c r="H102" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I102" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="J102" s="0" t="s">
         <v>58</v>
@@ -18987,7 +18987,7 @@
         <v>529</v>
       </c>
       <c r="I103" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="J103" s="0" t="s">
         <v>530</v>
@@ -19020,7 +19020,7 @@
         <v>148</v>
       </c>
       <c r="T103" s="0" t="s">
-        <v>484</v>
+        <v>358</v>
       </c>
     </row>
     <row r="104">
@@ -19031,10 +19031,10 @@
         <v>532</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E104" s="0" t="s">
         <v>533</v>
@@ -19046,10 +19046,10 @@
         <v>26</v>
       </c>
       <c r="H104" s="0" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="I104" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="J104" s="0" t="s">
         <v>535</v>
@@ -19093,10 +19093,10 @@
         <v>537</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E105" s="0" t="s">
         <v>538</v>
@@ -19108,10 +19108,10 @@
         <v>26</v>
       </c>
       <c r="H105" s="0" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="I105" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="J105" s="0" t="s">
         <v>535</v>
@@ -19173,7 +19173,7 @@
         <v>529</v>
       </c>
       <c r="I106" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="K106" s="0">
         <v>4</v>
@@ -19362,7 +19362,7 @@
         <v>6</v>
       </c>
       <c r="L109" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M109" s="0" t="s">
         <v>44</v>
@@ -19418,7 +19418,7 @@
         <v>57</v>
       </c>
       <c r="J110" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K110" s="0">
         <v>8</v>
@@ -19725,7 +19725,7 @@
         <v>593</v>
       </c>
       <c r="I115" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="J115" s="0" t="s">
         <v>535</v>
@@ -20017,10 +20017,10 @@
         <v>623</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E120" s="0" t="s">
         <v>624</v>
@@ -20032,10 +20032,10 @@
         <v>26</v>
       </c>
       <c r="H120" s="0" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="I120" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="J120" s="0" t="s">
         <v>535</v>
@@ -20327,10 +20327,10 @@
         <v>650</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E125" s="0" t="s">
         <v>651</v>
@@ -20342,7 +20342,7 @@
         <v>26</v>
       </c>
       <c r="H125" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="I125" s="0" t="s">
         <v>57</v>
@@ -20575,10 +20575,10 @@
         <v>671</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E129" s="0" t="s">
         <v>672</v>
@@ -20590,13 +20590,13 @@
         <v>26</v>
       </c>
       <c r="H129" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="I129" s="0" t="s">
         <v>57</v>
       </c>
       <c r="J129" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K129" s="0">
         <v>11</v>
@@ -21009,10 +21009,10 @@
         <v>709</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E136" s="0" t="s">
         <v>710</v>
@@ -21024,10 +21024,10 @@
         <v>26</v>
       </c>
       <c r="H136" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I136" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="J136" s="0" t="s">
         <v>58</v>
@@ -21284,7 +21284,7 @@
         <v>2</v>
       </c>
       <c r="L140" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M140" s="0" t="s">
         <v>85</v>
@@ -21494,7 +21494,7 @@
         <v>148</v>
       </c>
       <c r="T143" s="0" t="s">
-        <v>484</v>
+        <v>358</v>
       </c>
     </row>
     <row r="144">
@@ -23079,7 +23079,7 @@
         <v>8</v>
       </c>
       <c r="L169" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M169" s="0" t="s">
         <v>44</v>
@@ -23132,7 +23132,7 @@
         <v>891</v>
       </c>
       <c r="I170" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="J170" s="0" t="s">
         <v>530</v>
@@ -23203,7 +23203,7 @@
         <v>6</v>
       </c>
       <c r="L171" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M171" s="0" t="s">
         <v>226</v>
@@ -24968,10 +24968,10 @@
         <v>1014</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D200" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E200" s="0" t="s">
         <v>1015</v>
@@ -24983,10 +24983,10 @@
         <v>26</v>
       </c>
       <c r="H200" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I200" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="J200" s="0" t="s">
         <v>58</v>
@@ -25045,7 +25045,7 @@
         <v>26</v>
       </c>
       <c r="H201" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="I201" s="0" t="s">
         <v>57</v>
@@ -25757,7 +25757,7 @@
         <v>155</v>
       </c>
       <c r="T212" s="0" t="s">
-        <v>484</v>
+        <v>358</v>
       </c>
     </row>
     <row r="213">
@@ -25783,7 +25783,7 @@
         <v>26</v>
       </c>
       <c r="H213" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="I213" s="0" t="s">
         <v>57</v>
@@ -26217,7 +26217,7 @@
         <v>26</v>
       </c>
       <c r="H220" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="I220" s="0" t="s">
         <v>57</v>
@@ -26465,7 +26465,7 @@
         <v>26</v>
       </c>
       <c r="H224" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="I224" s="0" t="s">
         <v>57</v>
@@ -26651,7 +26651,7 @@
         <v>26</v>
       </c>
       <c r="H227" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="I227" s="0" t="s">
         <v>57</v>
@@ -28015,13 +28015,13 @@
         <v>26</v>
       </c>
       <c r="H249" s="0" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="I249" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="J249" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="K249" s="0">
         <v>21</v>
@@ -28083,7 +28083,7 @@
         <v>706</v>
       </c>
       <c r="J250" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K250" s="0">
         <v>25</v>
@@ -28275,7 +28275,7 @@
         <v>10</v>
       </c>
       <c r="L253" s="0" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M253" s="0" t="s">
         <v>44</v>
@@ -29415,7 +29415,7 @@
         <v>799</v>
       </c>
       <c r="T271" s="0" t="s">
-        <v>484</v>
+        <v>358</v>
       </c>
     </row>
     <row r="272">
@@ -30288,10 +30288,10 @@
         <v>1426</v>
       </c>
       <c r="C286" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D286" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E286" s="0" t="s">
         <v>1437</v>
@@ -31115,7 +31115,7 @@
         <v>706</v>
       </c>
       <c r="J299" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K299" s="0">
         <v>13</v>
@@ -31298,7 +31298,7 @@
         <v>57</v>
       </c>
       <c r="J302" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K302" s="0">
         <v>35</v>
@@ -31360,7 +31360,7 @@
         <v>706</v>
       </c>
       <c r="J303" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K303" s="0">
         <v>10</v>
@@ -32491,7 +32491,7 @@
         <v>799</v>
       </c>
       <c r="T321" s="0" t="s">
-        <v>484</v>
+        <v>358</v>
       </c>
     </row>
     <row r="322">
@@ -32824,10 +32824,10 @@
         <v>1644</v>
       </c>
       <c r="I327" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="J327" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="K327" s="0">
         <v>20</v>
@@ -32886,10 +32886,10 @@
         <v>1644</v>
       </c>
       <c r="I328" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="J328" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="K328" s="0">
         <v>20</v>
@@ -33167,7 +33167,7 @@
         <v>799</v>
       </c>
       <c r="T332" s="0" t="s">
-        <v>484</v>
+        <v>358</v>
       </c>
     </row>
     <row r="333">
@@ -33657,7 +33657,7 @@
         <v>155</v>
       </c>
       <c r="T340" s="0" t="s">
-        <v>484</v>
+        <v>358</v>
       </c>
     </row>
     <row r="341">
@@ -33810,7 +33810,7 @@
         <v>593</v>
       </c>
       <c r="I343" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="J343" s="0" t="s">
         <v>535</v>
@@ -34474,10 +34474,10 @@
         <v>1789</v>
       </c>
       <c r="C354" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D354" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E354" s="0" t="s">
         <v>1790</v>
@@ -34489,10 +34489,10 @@
         <v>26</v>
       </c>
       <c r="H354" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I354" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="J354" s="0" t="s">
         <v>58</v>
@@ -39691,7 +39691,7 @@
         <v>9.7</v>
       </c>
       <c r="L438" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M438" s="0" t="s">
         <v>44</v>
@@ -41725,7 +41725,7 @@
         <v>6</v>
       </c>
       <c r="L471" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M471" s="0" t="s">
         <v>44</v>
@@ -41967,7 +41967,7 @@
         <v>57</v>
       </c>
       <c r="J475" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K475" s="0">
         <v>10</v>
@@ -42398,7 +42398,7 @@
         <v>10</v>
       </c>
       <c r="L482" s="0" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M482" s="0" t="s">
         <v>44</v>
@@ -42616,10 +42616,10 @@
         <v>2392</v>
       </c>
       <c r="C486" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D486" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E486" s="0" t="s">
         <v>2393</v>
@@ -44269,10 +44269,10 @@
         <v>2490</v>
       </c>
       <c r="C513" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D513" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E513" s="0" t="s">
         <v>2491</v>
@@ -44603,7 +44603,7 @@
         <v>10</v>
       </c>
       <c r="L518" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M518" s="0" t="s">
         <v>44</v>
@@ -44839,7 +44839,7 @@
         <v>10</v>
       </c>
       <c r="L522" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M522" s="0" t="s">
         <v>85</v>
@@ -44925,7 +44925,7 @@
         <v>148</v>
       </c>
       <c r="T523" s="0" t="s">
-        <v>484</v>
+        <v>358</v>
       </c>
     </row>
     <row r="524">
@@ -44987,7 +44987,7 @@
         <v>148</v>
       </c>
       <c r="T524" s="0" t="s">
-        <v>484</v>
+        <v>358</v>
       </c>
     </row>
     <row r="525">
@@ -45633,7 +45633,7 @@
         <v>10.2</v>
       </c>
       <c r="L535" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M535" s="0" t="s">
         <v>44</v>
@@ -47847,7 +47847,7 @@
         <v>12</v>
       </c>
       <c r="L571" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M571" s="0" t="s">
         <v>44</v>
@@ -49143,7 +49143,7 @@
         <v>4.6</v>
       </c>
       <c r="L592" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M592" s="0" t="s">
         <v>44</v>
@@ -49536,7 +49536,7 @@
         <v>148</v>
       </c>
       <c r="T598" s="0" t="s">
-        <v>484</v>
+        <v>358</v>
       </c>
     </row>
     <row r="599">
@@ -50649,7 +50649,7 @@
         <v>799</v>
       </c>
       <c r="T616" s="0" t="s">
-        <v>484</v>
+        <v>358</v>
       </c>
     </row>
     <row r="617">
@@ -50935,7 +50935,7 @@
         <v>11.68</v>
       </c>
       <c r="L621" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M621" s="0" t="s">
         <v>44</v>
@@ -51466,10 +51466,10 @@
         <v>2977</v>
       </c>
       <c r="C630" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D630" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E630" s="0" t="s">
         <v>2978</v>
@@ -51481,10 +51481,10 @@
         <v>26</v>
       </c>
       <c r="H630" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I630" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="J630" s="0" t="s">
         <v>58</v>
@@ -51765,7 +51765,7 @@
         <v>148</v>
       </c>
       <c r="T634" s="0" t="s">
-        <v>484</v>
+        <v>358</v>
       </c>
     </row>
     <row r="635">
@@ -51874,10 +51874,10 @@
         <v>107</v>
       </c>
       <c r="O636" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P636" s="0" t="s">
-        <v>192</v>
+        <v>47</v>
       </c>
       <c r="Q636" s="0" t="s">
         <v>48</v>
@@ -51889,7 +51889,7 @@
         <v>148</v>
       </c>
       <c r="T636" s="0" t="s">
-        <v>34</v>
+        <v>358</v>
       </c>
     </row>
     <row r="637">
@@ -52175,7 +52175,7 @@
         <v>20</v>
       </c>
       <c r="L641" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M641" s="0" t="s">
         <v>44</v>
@@ -52444,7 +52444,7 @@
         <v>148</v>
       </c>
       <c r="T645" s="0" t="s">
-        <v>484</v>
+        <v>358</v>
       </c>
     </row>
     <row r="646">
@@ -52506,7 +52506,7 @@
         <v>148</v>
       </c>
       <c r="T646" s="0" t="s">
-        <v>484</v>
+        <v>358</v>
       </c>
     </row>
     <row r="647">
@@ -52568,7 +52568,7 @@
         <v>148</v>
       </c>
       <c r="T647" s="0" t="s">
-        <v>484</v>
+        <v>358</v>
       </c>
     </row>
     <row r="648">
@@ -53158,7 +53158,7 @@
         <v>57</v>
       </c>
       <c r="J657" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K657" s="0">
         <v>11</v>
@@ -53220,7 +53220,7 @@
         <v>57</v>
       </c>
       <c r="J658" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K658" s="0">
         <v>9</v>
@@ -53261,10 +53261,10 @@
         <v>3109</v>
       </c>
       <c r="C659" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D659" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E659" s="0" t="s">
         <v>3110</v>
@@ -53276,7 +53276,7 @@
         <v>26</v>
       </c>
       <c r="H659" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="I659" s="0" t="s">
         <v>57</v>
@@ -54014,7 +54014,7 @@
         <v>26</v>
       </c>
       <c r="H671" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="I671" s="0" t="s">
         <v>57</v>
@@ -56763,7 +56763,7 @@
         <v>148</v>
       </c>
       <c r="T715" s="0" t="s">
-        <v>484</v>
+        <v>358</v>
       </c>
     </row>
     <row r="716">
@@ -59588,7 +59588,7 @@
         <v>5</v>
       </c>
       <c r="L761" s="0" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M761" s="0" t="s">
         <v>85</v>
@@ -60976,7 +60976,7 @@
         <v>148</v>
       </c>
       <c r="T783" s="0" t="s">
-        <v>484</v>
+        <v>358</v>
       </c>
     </row>
     <row r="784">
@@ -64279,7 +64279,7 @@
         <v>3853</v>
       </c>
       <c r="I837" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="J837" s="0" t="s">
         <v>530</v>
@@ -64288,7 +64288,7 @@
         <v>2.2</v>
       </c>
       <c r="L837" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M837" s="0" t="s">
         <v>44</v>
@@ -64899,7 +64899,7 @@
         <v>70</v>
       </c>
       <c r="J847" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K847" s="0">
         <v>13.4</v>
@@ -66762,7 +66762,7 @@
         <v>8.9</v>
       </c>
       <c r="L877" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M877" s="0" t="s">
         <v>44</v>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223430.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225030.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 10:34:20</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 10:50:05</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -9923,7 +9923,7 @@
     <t>-43°38'56.601"</t>
   </si>
   <si>
-    <t>308.806,00</t>
+    <t>305.396,00</t>
   </si>
   <si>
     <t>Monjolo</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225030.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225830.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 10:50:05</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 10:58:58</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -12062,7 +12062,7 @@
     <t>-43°35'48.721"</t>
   </si>
   <si>
-    <t>5.950.974,00</t>
+    <t>5.940.566,30</t>
   </si>
   <si>
     <t>SUMP DE CONTENÇÃO DE SEDIMENTOS</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225830.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221530.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 10:58:58</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 11:15:27</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221530.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223130.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 11:15:27</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 11:31:56</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223130.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224330.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 11:31:56</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 11:43:09</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224330.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225130.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 11:43:09</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 11:51:42</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -12173,7 +12173,7 @@
     <t>-63°05'11.000"</t>
   </si>
   <si>
-    <t>1.474.061,68</t>
+    <t>1.535.971,00</t>
   </si>
   <si>
     <t>Tadeu</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225130.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220030.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 11:51:42</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 12:00:43</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220030.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222130.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 12:00:43</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 12:21:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222130.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223730.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 12:21:13</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 12:37:34</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223730.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224830.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 12:37:34</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 12:48:52</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -7877,7 +7877,7 @@
     <t>Silvanita</t>
   </si>
   <si>
-    <t>13.992,22</t>
+    <t>14.697,68</t>
   </si>
   <si>
     <t>Dique de Contenção de Sedimentos 01</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224830.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225730.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 12:48:52</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 12:57:45</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225730.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221730.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 12:57:45</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 01:17:19</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -8081,7 +8081,7 @@
     <t>-37°01'52.800"</t>
   </si>
   <si>
-    <t>39.249,73</t>
+    <t>12.637,48</t>
   </si>
   <si>
     <t>DIQUE DE SAÍDA DE CAVA</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221730.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224730.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 01:17:19</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 01:47:11</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224730.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220130.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 01:47:11</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 02:01:57</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -1355,7 +1355,7 @@
     <t>-48°45'25.300"</t>
   </si>
   <si>
-    <t>483.896,00</t>
+    <t>493.330,00</t>
   </si>
   <si>
     <t>Bacia 5 A</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220130.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222030.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 02:01:57</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 02:20:39</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -7877,7 +7877,7 @@
     <t>Silvanita</t>
   </si>
   <si>
-    <t>14.697,68</t>
+    <t>15.755,02</t>
   </si>
   <si>
     <t>Dique de Contenção de Sedimentos 01</t>
@@ -8081,7 +8081,7 @@
     <t>-37°01'52.800"</t>
   </si>
   <si>
-    <t>12.637,48</t>
+    <t>9.575,21</t>
   </si>
   <si>
     <t>DIQUE DE SAÍDA DE CAVA</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222030.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223430.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 02:20:39</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 02:34:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223430.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224430.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 02:34:21</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 02:44:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224430.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225330.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 02:44:13</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 02:53:27</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -1403,7 +1403,7 @@
     <t>-48°44'49.400"</t>
   </si>
   <si>
-    <t>504.615,00</t>
+    <t>509.090,00</t>
   </si>
   <si>
     <t>Bacia 6B</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225330.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220230.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 02:53:27</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 03:02:07</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -8747,7 +8747,7 @@
     <t>-43°50'22.800"</t>
   </si>
   <si>
-    <t>1.251.947,00</t>
+    <t>1.128.200,00</t>
   </si>
   <si>
     <t>Fortuna</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220230.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222930.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 03:02:07</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 03:29:25</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -57566,7 +57566,7 @@
         <v>33</v>
       </c>
       <c r="S728" s="0" t="s">
-        <v>148</v>
+        <v>622</v>
       </c>
       <c r="T728" s="0" t="s">
         <v>34</v>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222930.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224530.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 03:29:25</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 03:45:35</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224530.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225530.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 03:45:35</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 03:55:12</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225530.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220430.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 03:55:12</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 04:04:45</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220430.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222130.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 04:04:45</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 04:21:41</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -33326,7 +33326,7 @@
         <v>301</v>
       </c>
       <c r="K335" s="0">
-        <v>45.7</v>
+        <v>46</v>
       </c>
       <c r="L335" s="0" t="s">
         <v>1688</v>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222130.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223030.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 04:21:41</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 04:30:45</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223030.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223930.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 04:30:45</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 04:39:20</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -5834,7 +5834,7 @@
     <t>-59°22'17.800"</t>
   </si>
   <si>
-    <t>129.744,00</t>
+    <t>529.650,00</t>
   </si>
   <si>
     <t>Berion 2</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223930.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224830.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 04:39:20</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 04:48:19</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -4427,7 +4427,7 @@
     <t>PILAR DE GOIÁS</t>
   </si>
   <si>
-    <t>8.701.469,33</t>
+    <t>8.993.438,82</t>
   </si>
   <si>
     <t>Barragem de Rejeitos SB 02</t>
@@ -22955,7 +22955,7 @@
         <v>872</v>
       </c>
       <c r="K167" s="0">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="L167" s="0" t="s">
         <v>873</v>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224830.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225730.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 04:48:19</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 04:57:53</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -5846,7 +5846,7 @@
     <t>-59°22'24.724"</t>
   </si>
   <si>
-    <t>2.320,00</t>
+    <t>231.000,00</t>
   </si>
   <si>
     <t>Berion Captação</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225730.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221430.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 04:57:53</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 05:14:08</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -5099,7 +5099,7 @@
     <t>CRIXÁS</t>
   </si>
   <si>
-    <t>16.476.601,00</t>
+    <t>17.100.619,79</t>
   </si>
   <si>
     <t>Barragem Novo Astro</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221430.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223230.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 05:14:08</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 05:32:32</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223230.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224330.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 05:32:32</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 05:43:49</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -5078,7 +5078,7 @@
     <t>RIACHO DOS MACHADOS</t>
   </si>
   <si>
-    <t>14.238.926,14</t>
+    <t>14.702.281,50</t>
   </si>
   <si>
     <t>Barragem MSG</t>
@@ -33326,7 +33326,7 @@
         <v>301</v>
       </c>
       <c r="K335" s="0">
-        <v>46</v>
+        <v>47.4</v>
       </c>
       <c r="L335" s="0" t="s">
         <v>1688</v>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224330.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225230.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 05:43:49</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 05:52:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225230.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220130.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 05:52:49</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 06:01:48</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220130.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222030.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 06:01:48</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 06:20:46</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222030.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223230.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 06:20:46</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 06:32:07</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223230.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224230.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 06:32:07</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 06:42:28</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224230.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225130.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 06:42:28</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 06:51:06</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225130.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225930.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 06:51:06</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 06:59:45</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225930.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221930.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 06:59:45</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 07:19:06</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221930.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223530.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 07:19:06</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 07:35:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223530.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224530.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 07:35:00</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 07:45:32</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224530.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225530.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 07:45:32</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 07:55:11</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225530.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220330.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 07:55:11</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 08:03:46</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220330.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222630.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 08:03:46</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 08:26:05</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222630.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223730.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 08:26:05</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 08:37:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223730.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224630.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 08:37:49</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 08:46:37</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -4721,7 +4721,7 @@
     <t>-59°15'24.414"</t>
   </si>
   <si>
-    <t>8.094.961,42</t>
+    <t>8.132.139,61</t>
   </si>
   <si>
     <t>Barragem Eustáquio</t>

--- a/sigbm_download_2022-11-30.xlsx
+++ b/sigbm_download_2022-11-30.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224630.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225530.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="4247">
   <si>
-    <t>Informação extraída do SIGBM: 30/11/2022 - 08:46:37</t>
+    <t>Informação extraída do SIGBM: 30/11/2022 - 08:55:34</t>
   </si>
   <si>
     <t>ID Barragem</t>
